--- a/data/Aff Polarization.xlsx
+++ b/data/Aff Polarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Dissertation/Dissertation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAC7C2-8F43-D645-81A2-07FEFB22C05A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC68905-CA5E-2E4E-BBAC-8E8D3874306F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{5FEA4B67-A39C-7046-B546-51A453652D8C}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
